--- a/data/trans_bre/P15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,44%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,61; -2,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,55; -1,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,75; -2,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,59; 6,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,55; -31,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,44; -16,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,38; -25,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,28; 249,15</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,66%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,93; -0,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,0; -2,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,31; -1,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,89; 0,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,86; -1,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,46; -20,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,72; -24,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,98; 8,69</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,54%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,97; -1,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,26; -1,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; 0,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 0,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,77; -32,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,97; -24,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,78; 17,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,1; 17,67</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,94%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,3; -1,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 2,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; 1,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; -0,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,17; -19,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,43; 54,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,17; 43,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,21; -8,46</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>209,92%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,74%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,87%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,48; 2,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,15; 10,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 6,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 3,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,28; 66,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,41; 516,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,01; 340,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,24; 82,52</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,92%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 7,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 6,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,05; 7,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 5,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,1; 278,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,67; 129,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,03; 229,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,56; 120,61</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,03%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,88%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; -1,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; 0,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 0,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 1,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,0; -15,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,57; 1,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,2; 10,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,63; 22,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>32,99%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 6,9</t>
+          <t>-4,11; 6,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-55,28; 249,15</t>
+          <t>-65,5; 243,13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-48,66%</t>
+          <t>-54,53%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 0,08</t>
+          <t>-7,4; -0,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,98; 8,69</t>
+          <t>-80,75; -1,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-23,54%</t>
+          <t>-25,09%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 0,87</t>
+          <t>-4,67; 0,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-52,1; 17,67</t>
+          <t>-53,4; 16,04</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-41,94%</t>
+          <t>-27,82%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,67; -0,43</t>
+          <t>-4,73; 2,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,21; -8,46</t>
+          <t>-55,95; 69,13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>25,29%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 3,33</t>
+          <t>-1,48; 3,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 82,52</t>
+          <t>-21,98; 82,1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>126,62%</t>
+          <t>103,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>52,3%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>105,53%</t>
+          <t>137,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>63,92%</t>
+          <t>22,42%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,67</t>
+          <t>0,59; 7,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 6,96</t>
+          <t>-2,35; 5,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 7,57</t>
+          <t>1,51; 8,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,72</t>
+          <t>-3,29; 4,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>43,1; 278,18</t>
+          <t>1,31; 343,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,67; 129,33</t>
+          <t>-33,07; 142,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,03; 229,78</t>
+          <t>23,53; 372,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,56; 120,61</t>
+          <t>-55,69; 112,03</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-30,03%</t>
+          <t>143,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-13,88%</t>
+          <t>57,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-8,16%</t>
+          <t>74,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>69,55%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,65; 10,48</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 10,27</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 9,23</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1,8; 8,18</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>18,85; 448,65</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-6,72; 158,02</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 231,45</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17,3; 143,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-30,03%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-13,88%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-8,16%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-3,4; -1,08</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-2,56; 0,12</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-1,53; 0,59</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 1,19</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 1,59</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-42,0; -15,88</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-28,57; 1,61</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-24,2; 10,77</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-16,63; 22,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-20,85; 32,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P15-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -2,89</t>
+          <t>-9,58; -2,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,55; -1,78</t>
+          <t>-9,94; -1,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -2,43</t>
+          <t>-9,46; -2,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 6,41</t>
+          <t>-3,83; 7,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-73,55; -31,19</t>
+          <t>-74,54; -28,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-63,44; -16,76</t>
+          <t>-63,24; -13,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-75,38; -25,07</t>
+          <t>-74,33; -24,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-65,5; 243,13</t>
+          <t>-53,93; 331,87</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,93; -0,32</t>
+          <t>-6,11; -0,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,0; -2,2</t>
+          <t>-8,9; -2,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,31; -1,84</t>
+          <t>-7,13; -1,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,4; -0,16</t>
+          <t>-7,39; -0,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,86; -1,1</t>
+          <t>-58,56; -1,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,46; -20,59</t>
+          <t>-63,54; -21,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,72; -24,16</t>
+          <t>-70,75; -20,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-80,75; -1,68</t>
+          <t>-81,06; -4,62</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,97; -1,99</t>
+          <t>-6,93; -1,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,26; -1,65</t>
+          <t>-6,8; -1,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 0,65</t>
+          <t>-3,91; 0,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,83</t>
+          <t>-4,71; 0,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-77,77; -32,66</t>
+          <t>-75,51; -27,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,97; -24,5</t>
+          <t>-68,26; -22,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-59,78; 17,41</t>
+          <t>-58,79; 23,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,4; 16,04</t>
+          <t>-52,91; 18,19</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,3; -1,24</t>
+          <t>-7,21; -1,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,47</t>
+          <t>-2,91; 2,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 1,47</t>
+          <t>-3,1; 1,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 2,47</t>
+          <t>-4,53; 2,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-74,17; -19,13</t>
+          <t>-72,37; -16,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,43; 54,59</t>
+          <t>-40,09; 57,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-53,17; 43,89</t>
+          <t>-55,15; 51,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,95; 69,13</t>
+          <t>-55,6; 88,56</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 2,34</t>
+          <t>-3,19; 2,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,15; 10,01</t>
+          <t>3,12; 10,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 6,05</t>
+          <t>0,17; 6,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,36</t>
+          <t>-1,29; 3,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-54,28; 66,67</t>
+          <t>-49,79; 72,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>61,41; 516,34</t>
+          <t>64,84; 553,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,01; 340,97</t>
+          <t>-1,24; 336,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,98; 82,1</t>
+          <t>-20,1; 84,69</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,59; 7,54</t>
+          <t>0,5; 7,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 5,23</t>
+          <t>-2,3; 5,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 8,36</t>
+          <t>1,06; 7,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 4,4</t>
+          <t>-3,31; 4,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 343,83</t>
+          <t>4,83; 358,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,07; 142,89</t>
+          <t>-31,44; 157,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,53; 372,07</t>
+          <t>16,11; 385,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,69; 112,03</t>
+          <t>-57,01; 123,24</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 10,48</t>
+          <t>1,79; 10,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 10,27</t>
+          <t>-0,29; 10,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 9,23</t>
+          <t>0,01; 8,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 8,18</t>
+          <t>1,97; 8,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,85; 448,65</t>
+          <t>25,8; 465,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 158,02</t>
+          <t>-3,08; 179,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 231,45</t>
+          <t>-2,35; 199,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,3; 143,72</t>
+          <t>20,56; 162,37</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,4; -1,08</t>
+          <t>-3,46; -1,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 0,12</t>
+          <t>-2,6; 0,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,59</t>
+          <t>-1,53; 0,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 1,59</t>
+          <t>-1,44; 1,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,0; -15,88</t>
+          <t>-42,52; -14,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 1,61</t>
+          <t>-27,97; 0,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 10,77</t>
+          <t>-23,53; 13,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,85; 32,53</t>
+          <t>-21,17; 30,97</t>
         </is>
       </c>
     </row>
